--- a/Supporting_Files/Optical_Constants/Y6_k.xlsx
+++ b/Supporting_Files/Optical_Constants/Y6_k.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\Jupyter_Projects\Drift_Diffusion_Simulations\Supporting_Files\Optical_Constants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\Jupyter_Projects\EQE_Tool\PV_Performance_Simulator_2.1\Supporting_Files\Optical_Constants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49094692-1C89-4282-9624-BF7BF5B3CB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5DF5D6-1185-443C-A455-EE2EDFDED9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8419DBB6-DC0B-4D82-B8D7-21716218791F}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{8419DBB6-DC0B-4D82-B8D7-21716218791F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,12 +82,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,9 +107,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -146,7 +147,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -252,7 +253,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,7 +395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -402,13 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DD9663-C73E-4F44-93B3-B19E2FD9F6EC}">
-  <dimension ref="A1:B352"/>
+  <dimension ref="A1:B729"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A726" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B729"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -428,2802 +432,5818 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B3">
-        <v>0.16200000000000001</v>
+        <v>0.17560000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B4">
-        <v>0.14699999999999999</v>
+        <v>0.17219999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B5">
-        <v>0.13500000000000001</v>
+        <v>0.16880000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B6">
-        <v>0.126</v>
+        <v>0.16539999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="B7">
-        <v>0.121</v>
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="B8">
-        <v>0.115</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="B9">
-        <v>0.11</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="B10">
-        <v>0.106</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="B11">
-        <v>0.105</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="B12">
-        <v>0.107</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>425</v>
+        <v>381</v>
       </c>
       <c r="B13">
-        <v>0.111</v>
+        <v>0.14460000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="B14">
-        <v>0.11799999999999999</v>
+        <v>0.14219999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="B15">
-        <v>0.126</v>
+        <v>0.13980000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>440</v>
+        <v>384</v>
       </c>
       <c r="B16">
-        <v>0.13400000000000001</v>
+        <v>0.13739999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>445</v>
+        <v>385</v>
       </c>
       <c r="B17">
-        <v>0.14099999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>450</v>
+        <v>386</v>
       </c>
       <c r="B18">
-        <v>0.14799999999999999</v>
+        <v>0.13320000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>455</v>
+        <v>387</v>
       </c>
       <c r="B19">
-        <v>0.154</v>
+        <v>0.13139999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>460</v>
+        <v>388</v>
       </c>
       <c r="B20">
-        <v>0.161</v>
+        <v>0.12959999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>465</v>
+        <v>389</v>
       </c>
       <c r="B21">
-        <v>0.16900000000000001</v>
+        <v>0.1278</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="B22">
-        <v>0.17899999999999999</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>475</v>
+        <v>391</v>
       </c>
       <c r="B23">
-        <v>0.189</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>480</v>
+        <v>392</v>
       </c>
       <c r="B24">
-        <v>0.2</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>485</v>
+        <v>393</v>
       </c>
       <c r="B25">
-        <v>0.21099999999999999</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>490</v>
+        <v>394</v>
       </c>
       <c r="B26">
-        <v>0.221</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>495</v>
+        <v>395</v>
       </c>
       <c r="B27">
-        <v>0.23</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>500</v>
+        <v>396</v>
       </c>
       <c r="B28">
-        <v>0.23699999999999999</v>
+        <v>0.1198</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>505</v>
+        <v>397</v>
       </c>
       <c r="B29">
-        <v>0.24299999999999999</v>
+        <v>0.1186</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>510</v>
+        <v>398</v>
       </c>
       <c r="B30">
-        <v>0.248</v>
+        <v>0.1174</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>515</v>
+        <v>399</v>
       </c>
       <c r="B31">
-        <v>0.252</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="B32">
-        <v>0.255</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>525</v>
+        <v>401</v>
       </c>
       <c r="B33">
-        <v>0.25800000000000001</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>530</v>
+        <v>402</v>
       </c>
       <c r="B34">
-        <v>0.26</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>535</v>
+        <v>403</v>
       </c>
       <c r="B35">
-        <v>0.26200000000000001</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>540</v>
+        <v>404</v>
       </c>
       <c r="B36">
-        <v>0.26400000000000001</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>545</v>
+        <v>405</v>
       </c>
       <c r="B37">
-        <v>0.26600000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>550</v>
+        <v>406</v>
       </c>
       <c r="B38">
-        <v>0.26900000000000002</v>
+        <v>0.10920000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>555</v>
+        <v>407</v>
       </c>
       <c r="B39">
-        <v>0.27400000000000002</v>
+        <v>0.1084</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>560</v>
+        <v>408</v>
       </c>
       <c r="B40">
-        <v>0.28000000000000003</v>
+        <v>0.1076</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>565</v>
+        <v>409</v>
       </c>
       <c r="B41">
-        <v>0.28899999999999998</v>
+        <v>0.10680000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>570</v>
+        <v>410</v>
       </c>
       <c r="B42">
-        <v>0.30099999999999999</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>575</v>
+        <v>411</v>
       </c>
       <c r="B43">
-        <v>0.316</v>
+        <v>0.10580000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>580</v>
+        <v>412</v>
       </c>
       <c r="B44">
-        <v>0.33500000000000002</v>
+        <v>0.1056</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>585</v>
+        <v>413</v>
       </c>
       <c r="B45">
-        <v>0.35699999999999998</v>
+        <v>0.10539999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>590</v>
+        <v>414</v>
       </c>
       <c r="B46">
-        <v>0.38300000000000001</v>
+        <v>0.1052</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>595</v>
+        <v>415</v>
       </c>
       <c r="B47">
-        <v>0.41199999999999998</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>600</v>
+        <v>416</v>
       </c>
       <c r="B48">
-        <v>0.44400000000000001</v>
+        <v>0.10539999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>605</v>
+        <v>417</v>
       </c>
       <c r="B49">
-        <v>0.47799999999999998</v>
+        <v>0.10580000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>610</v>
+        <v>418</v>
       </c>
       <c r="B50">
-        <v>0.51300000000000001</v>
+        <v>0.1062</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>615</v>
+        <v>419</v>
       </c>
       <c r="B51">
-        <v>0.54800000000000004</v>
+        <v>0.1066</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>620</v>
+        <v>420</v>
       </c>
       <c r="B52">
-        <v>0.58199999999999996</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>625</v>
+        <v>421</v>
       </c>
       <c r="B53">
-        <v>0.61499999999999999</v>
+        <v>0.10780000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>630</v>
+        <v>422</v>
       </c>
       <c r="B54">
-        <v>0.64600000000000002</v>
+        <v>0.1086</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>635</v>
+        <v>423</v>
       </c>
       <c r="B55">
-        <v>0.67500000000000004</v>
+        <v>0.1094</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>640</v>
+        <v>424</v>
       </c>
       <c r="B56">
-        <v>0.7</v>
+        <v>0.11020000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>645</v>
+        <v>425</v>
       </c>
       <c r="B57">
-        <v>0.72399999999999998</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>650</v>
+        <v>426</v>
       </c>
       <c r="B58">
-        <v>0.746</v>
+        <v>0.1124</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>655</v>
+        <v>427</v>
       </c>
       <c r="B59">
-        <v>0.76600000000000001</v>
+        <v>0.1138</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>660</v>
+        <v>428</v>
       </c>
       <c r="B60">
-        <v>0.78500000000000003</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>665</v>
+        <v>429</v>
       </c>
       <c r="B61">
-        <v>0.80400000000000005</v>
+        <v>0.1166</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>670</v>
+        <v>430</v>
       </c>
       <c r="B62">
-        <v>0.82299999999999995</v>
+        <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>675</v>
+        <v>431</v>
       </c>
       <c r="B63">
-        <v>0.84299999999999997</v>
+        <v>0.1196</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>680</v>
+        <v>432</v>
       </c>
       <c r="B64">
-        <v>0.86499999999999999</v>
+        <v>0.1212</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>685</v>
+        <v>433</v>
       </c>
       <c r="B65">
-        <v>0.88700000000000001</v>
+        <v>0.12280000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>690</v>
+        <v>434</v>
       </c>
       <c r="B66">
-        <v>0.90900000000000003</v>
+        <v>0.1244</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>695</v>
+        <v>435</v>
       </c>
       <c r="B67">
-        <v>0.93</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>700</v>
+        <v>436</v>
       </c>
       <c r="B68">
-        <v>0.95199999999999996</v>
+        <v>0.12759999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>705</v>
+        <v>437</v>
       </c>
       <c r="B69">
-        <v>0.97199999999999998</v>
+        <v>0.12920000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>710</v>
+        <v>438</v>
       </c>
       <c r="B70">
-        <v>0.99199999999999999</v>
+        <v>0.1308</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>715</v>
+        <v>439</v>
       </c>
       <c r="B71">
-        <v>1.01</v>
+        <v>0.13239999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>720</v>
+        <v>440</v>
       </c>
       <c r="B72">
-        <v>1.0269999999999999</v>
+        <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>725</v>
+        <v>441</v>
       </c>
       <c r="B73">
-        <v>1.0429999999999999</v>
+        <v>0.13539999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>730</v>
+        <v>442</v>
       </c>
       <c r="B74">
-        <v>1.0580000000000001</v>
+        <v>0.1368</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>735</v>
+        <v>443</v>
       </c>
       <c r="B75">
-        <v>1.0720000000000001</v>
+        <v>0.13819999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>740</v>
+        <v>444</v>
       </c>
       <c r="B76">
-        <v>1.085</v>
+        <v>0.1396</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>745</v>
+        <v>445</v>
       </c>
       <c r="B77">
-        <v>1.099</v>
+        <v>0.14099999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>750</v>
+        <v>446</v>
       </c>
       <c r="B78">
-        <v>1.113</v>
+        <v>0.1424</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>755</v>
+        <v>447</v>
       </c>
       <c r="B79">
-        <v>1.129</v>
+        <v>0.14380000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="B80">
-        <v>1.145</v>
+        <v>0.1452</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>765</v>
+        <v>449</v>
       </c>
       <c r="B81">
-        <v>1.163</v>
+        <v>0.14660000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>770</v>
+        <v>450</v>
       </c>
       <c r="B82">
-        <v>1.1830000000000001</v>
+        <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>775</v>
+        <v>451</v>
       </c>
       <c r="B83">
-        <v>1.2030000000000001</v>
+        <v>0.1492</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>780</v>
+        <v>452</v>
       </c>
       <c r="B84">
-        <v>1.224</v>
+        <v>0.15040000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>785</v>
+        <v>453</v>
       </c>
       <c r="B85">
-        <v>1.2450000000000001</v>
+        <v>0.15160000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>790</v>
+        <v>454</v>
       </c>
       <c r="B86">
-        <v>1.266</v>
+        <v>0.15279999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>795</v>
+        <v>455</v>
       </c>
       <c r="B87">
-        <v>1.2869999999999999</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>800</v>
+        <v>456</v>
       </c>
       <c r="B88">
-        <v>1.304</v>
+        <v>0.15540000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>805</v>
+        <v>457</v>
       </c>
       <c r="B89">
-        <v>1.32</v>
+        <v>0.15679999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>810</v>
+        <v>458</v>
       </c>
       <c r="B90">
-        <v>1.3320000000000001</v>
+        <v>0.15820000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>815</v>
+        <v>459</v>
       </c>
       <c r="B91">
-        <v>1.3380000000000001</v>
+        <v>0.15959999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>820</v>
+        <v>460</v>
       </c>
       <c r="B92">
-        <v>1.3360000000000001</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>825</v>
+        <v>461</v>
       </c>
       <c r="B93">
-        <v>1.3280000000000001</v>
+        <v>0.16259999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>830</v>
+        <v>462</v>
       </c>
       <c r="B94">
-        <v>1.31</v>
+        <v>0.16420000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>835</v>
+        <v>463</v>
       </c>
       <c r="B95">
-        <v>1.282</v>
+        <v>0.1658</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>840</v>
+        <v>464</v>
       </c>
       <c r="B96">
-        <v>1.24</v>
+        <v>0.16739999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>845</v>
+        <v>465</v>
       </c>
       <c r="B97">
-        <v>1.1839999999999999</v>
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>850</v>
+        <v>466</v>
       </c>
       <c r="B98">
-        <v>1.113</v>
+        <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>855</v>
+        <v>467</v>
       </c>
       <c r="B99">
-        <v>1.0249999999999999</v>
+        <v>0.17299999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>860</v>
+        <v>468</v>
       </c>
       <c r="B100">
-        <v>0.88600000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>865</v>
+        <v>469</v>
       </c>
       <c r="B101">
-        <v>0.746</v>
+        <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>870</v>
+        <v>470</v>
       </c>
       <c r="B102">
-        <v>0.64100000000000001</v>
+        <v>0.17899999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>875</v>
+        <v>471</v>
       </c>
       <c r="B103">
-        <v>0.54100000000000004</v>
+        <v>0.18099999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>880</v>
+        <v>472</v>
       </c>
       <c r="B104">
-        <v>0.45300000000000001</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>885</v>
+        <v>473</v>
       </c>
       <c r="B105">
-        <v>0.378</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>890</v>
+        <v>474</v>
       </c>
       <c r="B106">
-        <v>0.316</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>895</v>
+        <v>475</v>
       </c>
       <c r="B107">
-        <v>0.26400000000000001</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>900</v>
+        <v>476</v>
       </c>
       <c r="B108">
-        <v>0.219</v>
+        <v>0.19120000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>905</v>
+        <v>477</v>
       </c>
       <c r="B109">
-        <v>0.18099999999999999</v>
+        <v>0.19339999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>910</v>
+        <v>478</v>
       </c>
       <c r="B110">
-        <v>0.14899999999999999</v>
+        <v>0.1956</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>915</v>
+        <v>479</v>
       </c>
       <c r="B111">
-        <v>0.121</v>
+        <v>0.1978</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>920</v>
+        <v>480</v>
       </c>
       <c r="B112">
-        <v>9.7000000000000003E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>925</v>
+        <v>481</v>
       </c>
       <c r="B113">
-        <v>7.5999999999999998E-2</v>
+        <v>0.20219999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>930</v>
+        <v>482</v>
       </c>
       <c r="B114">
-        <v>5.6000000000000001E-2</v>
+        <v>0.2044</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>935</v>
+        <v>483</v>
       </c>
       <c r="B115">
-        <v>3.9E-2</v>
+        <v>0.20660000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>940</v>
+        <v>484</v>
       </c>
       <c r="B116">
-        <v>2.3E-2</v>
+        <v>0.20880000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>945</v>
+        <v>485</v>
       </c>
       <c r="B117">
-        <v>0.01</v>
+        <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>950</v>
+        <v>486</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>0.21299999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>955</v>
+        <v>487</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>960</v>
+        <v>488</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>965</v>
+        <v>489</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>970</v>
+        <v>490</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>975</v>
+        <v>491</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>0.2228</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>980</v>
+        <v>492</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>0.22459999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>985</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
+        <v>493</v>
+      </c>
+      <c r="B125" s="3">
+        <v>0.22639999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>990</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
+        <v>494</v>
+      </c>
+      <c r="B126" s="3">
+        <v>0.22819999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>995</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
+        <v>495</v>
+      </c>
+      <c r="B127" s="3">
+        <v>0.23</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>1000</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
+        <v>496</v>
+      </c>
+      <c r="B128" s="3">
+        <v>0.23139999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>1005</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
+        <v>497</v>
+      </c>
+      <c r="B129" s="3">
+        <v>0.23280000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>1010</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
+        <v>498</v>
+      </c>
+      <c r="B130" s="3">
+        <v>0.23419999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>1015</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
+        <v>499</v>
+      </c>
+      <c r="B131" s="3">
+        <v>0.2356</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>1020</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0.23699999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>1025</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
+        <v>501</v>
+      </c>
+      <c r="B133" s="3">
+        <v>0.2382</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>1030</v>
-      </c>
-      <c r="B134">
-        <v>0</v>
+        <v>502</v>
+      </c>
+      <c r="B134" s="3">
+        <v>0.2394</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>1035</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
+        <v>503</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0.24060000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>1040</v>
-      </c>
-      <c r="B136">
-        <v>0</v>
+        <v>504</v>
+      </c>
+      <c r="B136" s="3">
+        <v>0.24179999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>1045</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
+        <v>505</v>
+      </c>
+      <c r="B137" s="3">
+        <v>0.24299999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>1050</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
+        <v>506</v>
+      </c>
+      <c r="B138" s="3">
+        <v>0.24399999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>1055</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
+        <v>507</v>
+      </c>
+      <c r="B139" s="3">
+        <v>0.245</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>1060</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
+        <v>508</v>
+      </c>
+      <c r="B140" s="3">
+        <v>0.246</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>1065</v>
-      </c>
-      <c r="B141">
-        <v>0</v>
+        <v>509</v>
+      </c>
+      <c r="B141" s="3">
+        <v>0.247</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>1070</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
+        <v>510</v>
+      </c>
+      <c r="B142" s="3">
+        <v>0.248</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>1075</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
+        <v>511</v>
+      </c>
+      <c r="B143" s="3">
+        <v>0.24879999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>1080</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
+        <v>512</v>
+      </c>
+      <c r="B144" s="3">
+        <v>0.24959999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>1085</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
+        <v>513</v>
+      </c>
+      <c r="B145" s="3">
+        <v>0.25040000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>1090</v>
-      </c>
-      <c r="B146">
-        <v>0</v>
+        <v>514</v>
+      </c>
+      <c r="B146" s="3">
+        <v>0.25119999999999998</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>1095</v>
-      </c>
-      <c r="B147">
-        <v>0</v>
+        <v>515</v>
+      </c>
+      <c r="B147" s="3">
+        <v>0.252</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>1100</v>
-      </c>
-      <c r="B148">
-        <v>0</v>
+        <v>516</v>
+      </c>
+      <c r="B148" s="3">
+        <v>0.25259999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>1105</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
+        <v>517</v>
+      </c>
+      <c r="B149" s="3">
+        <v>0.25319999999999998</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>1110</v>
-      </c>
-      <c r="B150">
-        <v>0</v>
+        <v>518</v>
+      </c>
+      <c r="B150" s="3">
+        <v>0.25380000000000003</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>1115</v>
-      </c>
-      <c r="B151">
-        <v>0</v>
+        <v>519</v>
+      </c>
+      <c r="B151" s="3">
+        <v>0.25440000000000002</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>1120</v>
-      </c>
-      <c r="B152">
-        <v>0</v>
+        <v>520</v>
+      </c>
+      <c r="B152" s="3">
+        <v>0.255</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>1125</v>
-      </c>
-      <c r="B153">
-        <v>0</v>
+        <v>521</v>
+      </c>
+      <c r="B153" s="3">
+        <v>0.25559999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>1130</v>
-      </c>
-      <c r="B154">
-        <v>0</v>
+        <v>522</v>
+      </c>
+      <c r="B154" s="3">
+        <v>0.25619999999999998</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>1135</v>
-      </c>
-      <c r="B155">
-        <v>0</v>
+        <v>523</v>
+      </c>
+      <c r="B155" s="3">
+        <v>0.25679999999999997</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>1140</v>
-      </c>
-      <c r="B156">
-        <v>0</v>
+        <v>524</v>
+      </c>
+      <c r="B156" s="3">
+        <v>0.25740000000000002</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>1145</v>
-      </c>
-      <c r="B157">
-        <v>0</v>
+        <v>525</v>
+      </c>
+      <c r="B157" s="3">
+        <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>1150</v>
-      </c>
-      <c r="B158">
-        <v>0</v>
+        <v>526</v>
+      </c>
+      <c r="B158" s="3">
+        <v>0.25840000000000002</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>1155</v>
-      </c>
-      <c r="B159">
-        <v>0</v>
+        <v>527</v>
+      </c>
+      <c r="B159" s="3">
+        <v>0.25879999999999997</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>1160</v>
-      </c>
-      <c r="B160">
-        <v>0</v>
+        <v>528</v>
+      </c>
+      <c r="B160" s="3">
+        <v>0.25919999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>1165</v>
-      </c>
-      <c r="B161">
-        <v>0</v>
+        <v>529</v>
+      </c>
+      <c r="B161" s="3">
+        <v>0.2596</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>1170</v>
-      </c>
-      <c r="B162">
-        <v>0</v>
+        <v>530</v>
+      </c>
+      <c r="B162" s="3">
+        <v>0.26</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>1175</v>
-      </c>
-      <c r="B163">
-        <v>0</v>
+        <v>531</v>
+      </c>
+      <c r="B163" s="3">
+        <v>0.26040000000000002</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>1180</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
+        <v>532</v>
+      </c>
+      <c r="B164" s="3">
+        <v>0.26079999999999998</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>1185</v>
-      </c>
-      <c r="B165">
-        <v>0</v>
+        <v>533</v>
+      </c>
+      <c r="B165" s="3">
+        <v>0.26119999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>1190</v>
-      </c>
-      <c r="B166">
-        <v>0</v>
+        <v>534</v>
+      </c>
+      <c r="B166" s="3">
+        <v>0.2616</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>1195</v>
-      </c>
-      <c r="B167">
-        <v>0</v>
+        <v>535</v>
+      </c>
+      <c r="B167" s="3">
+        <v>0.26200000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>1200</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
+        <v>536</v>
+      </c>
+      <c r="B168" s="3">
+        <v>0.26240000000000002</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>1205</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
+        <v>537</v>
+      </c>
+      <c r="B169" s="3">
+        <v>0.26279999999999998</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>1210</v>
-      </c>
-      <c r="B170">
-        <v>0</v>
+        <v>538</v>
+      </c>
+      <c r="B170" s="3">
+        <v>0.26319999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>1215</v>
-      </c>
-      <c r="B171">
-        <v>0</v>
+        <v>539</v>
+      </c>
+      <c r="B171" s="3">
+        <v>0.2636</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>1220</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
+        <v>540</v>
+      </c>
+      <c r="B172" s="3">
+        <v>0.26400000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>1225</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
+        <v>541</v>
+      </c>
+      <c r="B173" s="3">
+        <v>0.26440000000000002</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>1230</v>
-      </c>
-      <c r="B174">
-        <v>0</v>
+        <v>542</v>
+      </c>
+      <c r="B174" s="3">
+        <v>0.26479999999999998</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>1235</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
+        <v>543</v>
+      </c>
+      <c r="B175" s="3">
+        <v>0.26519999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>1240</v>
-      </c>
-      <c r="B176">
-        <v>0</v>
+        <v>544</v>
+      </c>
+      <c r="B176" s="3">
+        <v>0.2656</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>1245</v>
-      </c>
-      <c r="B177">
-        <v>0</v>
+        <v>545</v>
+      </c>
+      <c r="B177" s="3">
+        <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>1250</v>
-      </c>
-      <c r="B178">
-        <v>0</v>
+        <v>546</v>
+      </c>
+      <c r="B178" s="3">
+        <v>0.2666</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>1255</v>
-      </c>
-      <c r="B179">
-        <v>0</v>
+        <v>547</v>
+      </c>
+      <c r="B179" s="3">
+        <v>0.26719999999999999</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>1260</v>
-      </c>
-      <c r="B180">
-        <v>0</v>
+        <v>548</v>
+      </c>
+      <c r="B180" s="3">
+        <v>0.26779999999999998</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>1265</v>
-      </c>
-      <c r="B181">
-        <v>0</v>
+        <v>549</v>
+      </c>
+      <c r="B181" s="3">
+        <v>0.26840000000000003</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>1270</v>
-      </c>
-      <c r="B182">
-        <v>0</v>
+        <v>550</v>
+      </c>
+      <c r="B182" s="3">
+        <v>0.26900000000000002</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>1275</v>
-      </c>
-      <c r="B183">
-        <v>0</v>
+        <v>551</v>
+      </c>
+      <c r="B183" s="3">
+        <v>0.27</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>1280</v>
-      </c>
-      <c r="B184">
-        <v>0</v>
+        <v>552</v>
+      </c>
+      <c r="B184" s="3">
+        <v>0.27100000000000002</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>1285</v>
-      </c>
-      <c r="B185">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="B185" s="3">
+        <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>1290</v>
-      </c>
-      <c r="B186">
-        <v>0</v>
+        <v>554</v>
+      </c>
+      <c r="B186" s="3">
+        <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>1295</v>
-      </c>
-      <c r="B187">
-        <v>0</v>
+        <v>555</v>
+      </c>
+      <c r="B187" s="3">
+        <v>0.27400000000000002</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>1300</v>
-      </c>
-      <c r="B188">
-        <v>0</v>
+        <v>556</v>
+      </c>
+      <c r="B188" s="3">
+        <v>0.2752</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>1305</v>
-      </c>
-      <c r="B189">
-        <v>0</v>
+        <v>557</v>
+      </c>
+      <c r="B189" s="3">
+        <v>0.27639999999999998</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>1310</v>
-      </c>
-      <c r="B190">
-        <v>0</v>
+        <v>558</v>
+      </c>
+      <c r="B190" s="3">
+        <v>0.27760000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>1315</v>
-      </c>
-      <c r="B191">
-        <v>0</v>
+        <v>559</v>
+      </c>
+      <c r="B191" s="3">
+        <v>0.27879999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>1320</v>
-      </c>
-      <c r="B192">
-        <v>0</v>
+        <v>560</v>
+      </c>
+      <c r="B192" s="3">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>1325</v>
-      </c>
-      <c r="B193">
-        <v>0</v>
+        <v>561</v>
+      </c>
+      <c r="B193" s="3">
+        <v>0.28179999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>1330</v>
-      </c>
-      <c r="B194">
-        <v>0</v>
+        <v>562</v>
+      </c>
+      <c r="B194" s="3">
+        <v>0.28360000000000002</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>1335</v>
-      </c>
-      <c r="B195">
-        <v>0</v>
+        <v>563</v>
+      </c>
+      <c r="B195" s="3">
+        <v>0.28539999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>1340</v>
-      </c>
-      <c r="B196">
-        <v>0</v>
+        <v>564</v>
+      </c>
+      <c r="B196" s="3">
+        <v>0.28720000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>1345</v>
-      </c>
-      <c r="B197">
-        <v>0</v>
+        <v>565</v>
+      </c>
+      <c r="B197" s="3">
+        <v>0.28899999999999998</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>1350</v>
-      </c>
-      <c r="B198">
-        <v>0</v>
+        <v>566</v>
+      </c>
+      <c r="B198" s="3">
+        <v>0.29139999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>1355</v>
-      </c>
-      <c r="B199">
-        <v>0</v>
+        <v>567</v>
+      </c>
+      <c r="B199" s="3">
+        <v>0.29380000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>1360</v>
-      </c>
-      <c r="B200">
-        <v>0</v>
+        <v>568</v>
+      </c>
+      <c r="B200" s="3">
+        <v>0.29620000000000002</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>1365</v>
-      </c>
-      <c r="B201">
-        <v>0</v>
+        <v>569</v>
+      </c>
+      <c r="B201" s="3">
+        <v>0.29859999999999998</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>1370</v>
-      </c>
-      <c r="B202">
-        <v>0</v>
+        <v>570</v>
+      </c>
+      <c r="B202" s="3">
+        <v>0.30099999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>1375</v>
-      </c>
-      <c r="B203">
-        <v>0</v>
+        <v>571</v>
+      </c>
+      <c r="B203" s="3">
+        <v>0.30399999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>1380</v>
-      </c>
-      <c r="B204">
-        <v>0</v>
+        <v>572</v>
+      </c>
+      <c r="B204" s="3">
+        <v>0.307</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>1385</v>
-      </c>
-      <c r="B205">
-        <v>0</v>
+        <v>573</v>
+      </c>
+      <c r="B205" s="3">
+        <v>0.31</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>1390</v>
-      </c>
-      <c r="B206">
-        <v>0</v>
+        <v>574</v>
+      </c>
+      <c r="B206" s="3">
+        <v>0.313</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>1395</v>
-      </c>
-      <c r="B207">
-        <v>0</v>
+        <v>575</v>
+      </c>
+      <c r="B207" s="3">
+        <v>0.316</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>1400</v>
-      </c>
-      <c r="B208">
-        <v>0</v>
+        <v>576</v>
+      </c>
+      <c r="B208" s="3">
+        <v>0.31979999999999997</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>1405</v>
-      </c>
-      <c r="B209">
-        <v>0</v>
+        <v>577</v>
+      </c>
+      <c r="B209" s="3">
+        <v>0.3236</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>1410</v>
-      </c>
-      <c r="B210">
-        <v>0</v>
+        <v>578</v>
+      </c>
+      <c r="B210" s="3">
+        <v>0.32740000000000002</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>1415</v>
-      </c>
-      <c r="B211">
-        <v>0</v>
+        <v>579</v>
+      </c>
+      <c r="B211" s="3">
+        <v>0.33119999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>1420</v>
-      </c>
-      <c r="B212">
-        <v>0</v>
+        <v>580</v>
+      </c>
+      <c r="B212" s="3">
+        <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>1425</v>
-      </c>
-      <c r="B213">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="B213" s="3">
+        <v>0.33939999999999998</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>1430</v>
-      </c>
-      <c r="B214">
-        <v>0</v>
+        <v>582</v>
+      </c>
+      <c r="B214" s="3">
+        <v>0.34379999999999999</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>1435</v>
-      </c>
-      <c r="B215">
-        <v>0</v>
+        <v>583</v>
+      </c>
+      <c r="B215" s="3">
+        <v>0.34820000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>1440</v>
-      </c>
-      <c r="B216">
-        <v>0</v>
+        <v>584</v>
+      </c>
+      <c r="B216" s="3">
+        <v>0.35260000000000002</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>1445</v>
-      </c>
-      <c r="B217">
-        <v>0</v>
+        <v>585</v>
+      </c>
+      <c r="B217" s="3">
+        <v>0.35699999999999998</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>1450</v>
-      </c>
-      <c r="B218">
-        <v>0</v>
+        <v>586</v>
+      </c>
+      <c r="B218" s="3">
+        <v>0.36220000000000002</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>1455</v>
-      </c>
-      <c r="B219">
-        <v>0</v>
+        <v>587</v>
+      </c>
+      <c r="B219" s="3">
+        <v>0.3674</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>1460</v>
-      </c>
-      <c r="B220">
-        <v>0</v>
+        <v>588</v>
+      </c>
+      <c r="B220" s="3">
+        <v>0.37259999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>1465</v>
-      </c>
-      <c r="B221">
-        <v>0</v>
+        <v>589</v>
+      </c>
+      <c r="B221" s="3">
+        <v>0.37780000000000002</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>1470</v>
-      </c>
-      <c r="B222">
-        <v>0</v>
+        <v>590</v>
+      </c>
+      <c r="B222" s="3">
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>1475</v>
-      </c>
-      <c r="B223">
-        <v>0</v>
+        <v>591</v>
+      </c>
+      <c r="B223" s="3">
+        <v>0.38879999999999998</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>1480</v>
-      </c>
-      <c r="B224">
-        <v>0</v>
+        <v>592</v>
+      </c>
+      <c r="B224" s="3">
+        <v>0.39460000000000001</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>1485</v>
-      </c>
-      <c r="B225">
-        <v>0</v>
+        <v>593</v>
+      </c>
+      <c r="B225" s="3">
+        <v>0.40039999999999998</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>1490</v>
-      </c>
-      <c r="B226">
-        <v>0</v>
+        <v>594</v>
+      </c>
+      <c r="B226" s="3">
+        <v>0.40620000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>1495</v>
-      </c>
-      <c r="B227">
-        <v>0</v>
+        <v>595</v>
+      </c>
+      <c r="B227" s="3">
+        <v>0.41199999999999998</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>1500</v>
-      </c>
-      <c r="B228">
-        <v>0</v>
+        <v>596</v>
+      </c>
+      <c r="B228" s="3">
+        <v>0.41839999999999999</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>1505</v>
-      </c>
-      <c r="B229">
-        <v>0</v>
+        <v>597</v>
+      </c>
+      <c r="B229" s="3">
+        <v>0.42480000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>1510</v>
-      </c>
-      <c r="B230">
-        <v>0</v>
+        <v>598</v>
+      </c>
+      <c r="B230" s="3">
+        <v>0.43120000000000003</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>1515</v>
-      </c>
-      <c r="B231">
-        <v>0</v>
+        <v>599</v>
+      </c>
+      <c r="B231" s="3">
+        <v>0.43759999999999999</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>1520</v>
-      </c>
-      <c r="B232">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="B232" s="3">
+        <v>0.44400000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>1525</v>
-      </c>
-      <c r="B233">
-        <v>0</v>
+        <v>601</v>
+      </c>
+      <c r="B233" s="3">
+        <v>0.45079999999999998</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>1530</v>
-      </c>
-      <c r="B234">
-        <v>0</v>
+        <v>602</v>
+      </c>
+      <c r="B234" s="3">
+        <v>0.45760000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>1535</v>
-      </c>
-      <c r="B235">
-        <v>0</v>
+        <v>603</v>
+      </c>
+      <c r="B235" s="3">
+        <v>0.46439999999999998</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>1540</v>
-      </c>
-      <c r="B236">
-        <v>0</v>
+        <v>604</v>
+      </c>
+      <c r="B236" s="3">
+        <v>0.47120000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>1545</v>
-      </c>
-      <c r="B237">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="B237" s="3">
+        <v>0.47799999999999998</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>1550</v>
-      </c>
-      <c r="B238">
-        <v>0</v>
+        <v>606</v>
+      </c>
+      <c r="B238" s="3">
+        <v>0.48499999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>1555</v>
-      </c>
-      <c r="B239">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="B239" s="3">
+        <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>1560</v>
-      </c>
-      <c r="B240">
-        <v>0</v>
+        <v>608</v>
+      </c>
+      <c r="B240" s="3">
+        <v>0.499</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>1565</v>
-      </c>
-      <c r="B241">
-        <v>0</v>
+        <v>609</v>
+      </c>
+      <c r="B241" s="3">
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>1570</v>
-      </c>
-      <c r="B242">
-        <v>0</v>
+        <v>610</v>
+      </c>
+      <c r="B242" s="3">
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>1575</v>
-      </c>
-      <c r="B243">
-        <v>0</v>
+        <v>611</v>
+      </c>
+      <c r="B243" s="3">
+        <v>0.52</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>1580</v>
-      </c>
-      <c r="B244">
-        <v>0</v>
+        <v>612</v>
+      </c>
+      <c r="B244" s="3">
+        <v>0.52700000000000002</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>1585</v>
-      </c>
-      <c r="B245">
-        <v>0</v>
+        <v>613</v>
+      </c>
+      <c r="B245" s="3">
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>1590</v>
-      </c>
-      <c r="B246">
-        <v>0</v>
+        <v>614</v>
+      </c>
+      <c r="B246" s="3">
+        <v>0.54100000000000004</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>1595</v>
-      </c>
-      <c r="B247">
-        <v>0</v>
+        <v>615</v>
+      </c>
+      <c r="B247" s="3">
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>1600</v>
-      </c>
-      <c r="B248">
-        <v>0</v>
+        <v>616</v>
+      </c>
+      <c r="B248" s="3">
+        <v>0.55479999999999996</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>1485</v>
+        <v>617</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>0.56159999999999999</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>1490</v>
+        <v>618</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>0.56840000000000002</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>1495</v>
+        <v>619</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>0.57520000000000004</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>1500</v>
+        <v>620</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>0.58199999999999996</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>1505</v>
+        <v>621</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>0.58860000000000001</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>1510</v>
+        <v>622</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>0.59519999999999995</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>1515</v>
+        <v>623</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>0.6018</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>1520</v>
+        <v>624</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>0.60840000000000005</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>1525</v>
+        <v>625</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>0.61499999999999999</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>1530</v>
+        <v>626</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>0.62119999999999997</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>1535</v>
+        <v>627</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>0.62739999999999996</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>1540</v>
+        <v>628</v>
       </c>
       <c r="B260">
-        <v>0</v>
+        <v>0.63360000000000005</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>1545</v>
+        <v>629</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>0.63980000000000004</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>1550</v>
+        <v>630</v>
       </c>
       <c r="B262">
-        <v>0</v>
+        <v>0.64600000000000002</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>1555</v>
+        <v>631</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>0.65180000000000005</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>1560</v>
+        <v>632</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>0.65759999999999996</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>1565</v>
+        <v>633</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>0.66339999999999999</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>1570</v>
+        <v>634</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>0.66920000000000002</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>1575</v>
+        <v>635</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>1580</v>
+        <v>636</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>1585</v>
+        <v>637</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>0.68500000000000005</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>1590</v>
+        <v>638</v>
       </c>
       <c r="B270">
-        <v>0</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>1595</v>
+        <v>639</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>0.69499999999999995</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>1600</v>
+        <v>640</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>1605</v>
+        <v>641</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>0.70479999999999998</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>1610</v>
+        <v>642</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>0.70960000000000001</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>1615</v>
+        <v>643</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>0.71440000000000003</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>1620</v>
+        <v>644</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>0.71919999999999995</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>1625</v>
+        <v>645</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>0.72399999999999998</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>1630</v>
+        <v>646</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>0.72840000000000005</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>1635</v>
+        <v>647</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>0.73280000000000001</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>1640</v>
+        <v>648</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>0.73719999999999997</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>1645</v>
+        <v>649</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>0.74160000000000004</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>1650</v>
+        <v>650</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>1655</v>
+        <v>651</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>1660</v>
+        <v>652</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>1665</v>
+        <v>653</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>1670</v>
+        <v>654</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>1675</v>
+        <v>655</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>0.76600000000000001</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>1680</v>
+        <v>656</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>0.76980000000000004</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>1685</v>
+        <v>657</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>0.77359999999999995</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>1690</v>
+        <v>658</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>0.77739999999999998</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>1695</v>
+        <v>659</v>
       </c>
       <c r="B291">
-        <v>0</v>
+        <v>0.78120000000000001</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>1700</v>
+        <v>660</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>0.78500000000000003</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>1705</v>
+        <v>661</v>
       </c>
       <c r="B293">
-        <v>0</v>
+        <v>0.78879999999999995</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>1710</v>
+        <v>662</v>
       </c>
       <c r="B294">
-        <v>0</v>
+        <v>0.79259999999999997</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>1715</v>
+        <v>663</v>
       </c>
       <c r="B295">
-        <v>0</v>
+        <v>0.7964</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>1720</v>
+        <v>664</v>
       </c>
       <c r="B296">
-        <v>0</v>
+        <v>0.80020000000000002</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>1725</v>
+        <v>665</v>
       </c>
       <c r="B297">
-        <v>0</v>
+        <v>0.80400000000000005</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>1730</v>
+        <v>666</v>
       </c>
       <c r="B298">
-        <v>0</v>
+        <v>0.80779999999999996</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>1735</v>
+        <v>667</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>0.81159999999999999</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>1740</v>
+        <v>668</v>
       </c>
       <c r="B300">
-        <v>0</v>
+        <v>0.81540000000000001</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>1745</v>
+        <v>669</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>0.81920000000000004</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>1750</v>
+        <v>670</v>
       </c>
       <c r="B302">
-        <v>0</v>
+        <v>0.82299999999999995</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>1755</v>
+        <v>671</v>
       </c>
       <c r="B303">
-        <v>0</v>
+        <v>0.82699999999999996</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>1760</v>
+        <v>672</v>
       </c>
       <c r="B304">
-        <v>0</v>
+        <v>0.83099999999999996</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>1765</v>
+        <v>673</v>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>0.83499999999999996</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>1770</v>
+        <v>674</v>
       </c>
       <c r="B306">
-        <v>0</v>
+        <v>0.83899999999999997</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>1775</v>
+        <v>675</v>
       </c>
       <c r="B307">
-        <v>0</v>
+        <v>0.84299999999999997</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>1780</v>
+        <v>676</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>0.84740000000000004</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>1785</v>
+        <v>677</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>1790</v>
+        <v>678</v>
       </c>
       <c r="B310">
-        <v>0</v>
+        <v>0.85619999999999996</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>1795</v>
+        <v>679</v>
       </c>
       <c r="B311">
-        <v>0</v>
+        <v>0.86060000000000003</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>1800</v>
+        <v>680</v>
       </c>
       <c r="B312">
-        <v>0</v>
+        <v>0.86499999999999999</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>1805</v>
+        <v>681</v>
       </c>
       <c r="B313">
-        <v>0</v>
+        <v>0.86939999999999995</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>1810</v>
+        <v>682</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>0.87380000000000002</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>1815</v>
+        <v>683</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>0.87819999999999998</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>1820</v>
+        <v>684</v>
       </c>
       <c r="B316">
-        <v>0</v>
+        <v>0.88260000000000005</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>1825</v>
+        <v>685</v>
       </c>
       <c r="B317">
-        <v>0</v>
+        <v>0.88700000000000001</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>1830</v>
+        <v>686</v>
       </c>
       <c r="B318">
-        <v>0</v>
+        <v>0.89139999999999997</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>1835</v>
+        <v>687</v>
       </c>
       <c r="B319">
-        <v>0</v>
+        <v>0.89580000000000004</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>1840</v>
+        <v>688</v>
       </c>
       <c r="B320">
-        <v>0</v>
+        <v>0.9002</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>1845</v>
+        <v>689</v>
       </c>
       <c r="B321">
-        <v>0</v>
+        <v>0.90459999999999996</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>1850</v>
+        <v>690</v>
       </c>
       <c r="B322">
-        <v>0</v>
+        <v>0.90900000000000003</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>1855</v>
+        <v>691</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>0.91320000000000001</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>1860</v>
+        <v>692</v>
       </c>
       <c r="B324">
-        <v>0</v>
+        <v>0.91739999999999999</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>1865</v>
+        <v>693</v>
       </c>
       <c r="B325">
-        <v>0</v>
+        <v>0.92159999999999997</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>1870</v>
+        <v>694</v>
       </c>
       <c r="B326">
-        <v>0</v>
+        <v>0.92579999999999996</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>1875</v>
+        <v>695</v>
       </c>
       <c r="B327">
-        <v>0</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>1880</v>
+        <v>696</v>
       </c>
       <c r="B328">
-        <v>0</v>
+        <v>0.93440000000000001</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>1885</v>
+        <v>697</v>
       </c>
       <c r="B329">
-        <v>0</v>
+        <v>0.93879999999999997</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>1890</v>
+        <v>698</v>
       </c>
       <c r="B330">
-        <v>0</v>
+        <v>0.94320000000000004</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>1895</v>
+        <v>699</v>
       </c>
       <c r="B331">
-        <v>0</v>
+        <v>0.9476</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>1905</v>
+        <v>701</v>
       </c>
       <c r="B333">
-        <v>0</v>
+        <v>0.95599999999999996</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>1910</v>
+        <v>702</v>
       </c>
       <c r="B334">
-        <v>0</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>1915</v>
+        <v>703</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>0.96399999999999997</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>1920</v>
+        <v>704</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>0.96799999999999997</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>1925</v>
+        <v>705</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>0.97199999999999998</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>1930</v>
+        <v>706</v>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>0.97599999999999998</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>1935</v>
+        <v>707</v>
       </c>
       <c r="B339">
-        <v>0</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>1940</v>
+        <v>708</v>
       </c>
       <c r="B340">
-        <v>0</v>
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>1945</v>
+        <v>709</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>1950</v>
+        <v>710</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>1955</v>
+        <v>711</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>0.99560000000000004</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>1960</v>
+        <v>712</v>
       </c>
       <c r="B344">
-        <v>0</v>
+        <v>0.99919999999999998</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>1965</v>
+        <v>713</v>
       </c>
       <c r="B345">
-        <v>0</v>
+        <v>1.0027999999999999</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>1970</v>
+        <v>714</v>
       </c>
       <c r="B346">
-        <v>0</v>
+        <v>1.0064</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>1975</v>
+        <v>715</v>
       </c>
       <c r="B347">
-        <v>0</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>1980</v>
+        <v>716</v>
       </c>
       <c r="B348">
-        <v>0</v>
+        <v>1.0134000000000001</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>1985</v>
+        <v>717</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>1.0167999999999999</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>1990</v>
+        <v>718</v>
       </c>
       <c r="B350">
-        <v>0</v>
+        <v>1.0202</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>1995</v>
+        <v>719</v>
       </c>
       <c r="B351">
-        <v>0</v>
+        <v>1.0236000000000001</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>2000</v>
+        <v>720</v>
       </c>
       <c r="B352">
-        <v>0</v>
+        <v>1.0269999999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>721</v>
+      </c>
+      <c r="B353">
+        <v>1.0302</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>722</v>
+      </c>
+      <c r="B354">
+        <v>1.0334000000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>723</v>
+      </c>
+      <c r="B355">
+        <v>1.0366</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>724</v>
+      </c>
+      <c r="B356">
+        <v>1.0398000000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>725</v>
+      </c>
+      <c r="B357">
+        <v>1.0429999999999999</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>726</v>
+      </c>
+      <c r="B358">
+        <v>1.046</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>727</v>
+      </c>
+      <c r="B359">
+        <v>1.0489999999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>728</v>
+      </c>
+      <c r="B360">
+        <v>1.052</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>729</v>
+      </c>
+      <c r="B361">
+        <v>1.0549999999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>730</v>
+      </c>
+      <c r="B362">
+        <v>1.0580000000000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>731</v>
+      </c>
+      <c r="B363">
+        <v>1.0608</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>732</v>
+      </c>
+      <c r="B364">
+        <v>1.0636000000000001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>733</v>
+      </c>
+      <c r="B365">
+        <v>1.0664</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>734</v>
+      </c>
+      <c r="B366">
+        <v>1.0691999999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>735</v>
+      </c>
+      <c r="B367">
+        <v>1.0720000000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>736</v>
+      </c>
+      <c r="B368">
+        <v>1.0746</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>737</v>
+      </c>
+      <c r="B369">
+        <v>1.0771999999999999</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>738</v>
+      </c>
+      <c r="B370">
+        <v>1.0798000000000001</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>739</v>
+      </c>
+      <c r="B371">
+        <v>1.0824</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>740</v>
+      </c>
+      <c r="B372">
+        <v>1.085</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>741</v>
+      </c>
+      <c r="B373">
+        <v>1.0878000000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>742</v>
+      </c>
+      <c r="B374">
+        <v>1.0906</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>743</v>
+      </c>
+      <c r="B375">
+        <v>1.0933999999999999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>744</v>
+      </c>
+      <c r="B376">
+        <v>1.0962000000000001</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>745</v>
+      </c>
+      <c r="B377">
+        <v>1.099</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>746</v>
+      </c>
+      <c r="B378">
+        <v>1.1017999999999999</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>747</v>
+      </c>
+      <c r="B379">
+        <v>1.1046</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>748</v>
+      </c>
+      <c r="B380">
+        <v>1.1073999999999999</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>749</v>
+      </c>
+      <c r="B381">
+        <v>1.1102000000000001</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>750</v>
+      </c>
+      <c r="B382">
+        <v>1.113</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>751</v>
+      </c>
+      <c r="B383">
+        <v>1.1162000000000001</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>752</v>
+      </c>
+      <c r="B384">
+        <v>1.1194</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>753</v>
+      </c>
+      <c r="B385">
+        <v>1.1226</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>754</v>
+      </c>
+      <c r="B386">
+        <v>1.1257999999999999</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>755</v>
+      </c>
+      <c r="B387">
+        <v>1.129</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>756</v>
+      </c>
+      <c r="B388">
+        <v>1.1322000000000001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>757</v>
+      </c>
+      <c r="B389">
+        <v>1.1354</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>758</v>
+      </c>
+      <c r="B390">
+        <v>1.1386000000000001</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>759</v>
+      </c>
+      <c r="B391">
+        <v>1.1417999999999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>760</v>
+      </c>
+      <c r="B392">
+        <v>1.145</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>761</v>
+      </c>
+      <c r="B393">
+        <v>1.1486000000000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>762</v>
+      </c>
+      <c r="B394">
+        <v>1.1521999999999999</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>763</v>
+      </c>
+      <c r="B395">
+        <v>1.1557999999999999</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>764</v>
+      </c>
+      <c r="B396">
+        <v>1.1594</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>765</v>
+      </c>
+      <c r="B397">
+        <v>1.163</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>766</v>
+      </c>
+      <c r="B398">
+        <v>1.167</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>767</v>
+      </c>
+      <c r="B399">
+        <v>1.171</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>768</v>
+      </c>
+      <c r="B400">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>769</v>
+      </c>
+      <c r="B401">
+        <v>1.179</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>770</v>
+      </c>
+      <c r="B402">
+        <v>1.1830000000000001</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>771</v>
+      </c>
+      <c r="B403">
+        <v>1.1870000000000001</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>772</v>
+      </c>
+      <c r="B404">
+        <v>1.1910000000000001</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>773</v>
+      </c>
+      <c r="B405">
+        <v>1.1950000000000001</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>774</v>
+      </c>
+      <c r="B406">
+        <v>1.1990000000000001</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>775</v>
+      </c>
+      <c r="B407">
+        <v>1.2030000000000001</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>776</v>
+      </c>
+      <c r="B408">
+        <v>1.2072000000000001</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>777</v>
+      </c>
+      <c r="B409">
+        <v>1.2114</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>778</v>
+      </c>
+      <c r="B410">
+        <v>1.2156</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>779</v>
+      </c>
+      <c r="B411">
+        <v>1.2198</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>780</v>
+      </c>
+      <c r="B412">
+        <v>1.224</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>781</v>
+      </c>
+      <c r="B413">
+        <v>1.2282</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>782</v>
+      </c>
+      <c r="B414">
+        <v>1.2323999999999999</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>783</v>
+      </c>
+      <c r="B415">
+        <v>1.2365999999999999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>784</v>
+      </c>
+      <c r="B416">
+        <v>1.2407999999999999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>785</v>
+      </c>
+      <c r="B417">
+        <v>1.2450000000000001</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>786</v>
+      </c>
+      <c r="B418">
+        <v>1.2492000000000001</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>787</v>
+      </c>
+      <c r="B419">
+        <v>1.2534000000000001</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>788</v>
+      </c>
+      <c r="B420">
+        <v>1.2576000000000001</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>789</v>
+      </c>
+      <c r="B421">
+        <v>1.2618</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>790</v>
+      </c>
+      <c r="B422">
+        <v>1.266</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>791</v>
+      </c>
+      <c r="B423">
+        <v>1.2702</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>792</v>
+      </c>
+      <c r="B424">
+        <v>1.2744</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>793</v>
+      </c>
+      <c r="B425">
+        <v>1.2786</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>794</v>
+      </c>
+      <c r="B426">
+        <v>1.2827999999999999</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>795</v>
+      </c>
+      <c r="B427">
+        <v>1.2869999999999999</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>796</v>
+      </c>
+      <c r="B428">
+        <v>1.2904</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>797</v>
+      </c>
+      <c r="B429">
+        <v>1.2938000000000001</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>798</v>
+      </c>
+      <c r="B430">
+        <v>1.2971999999999999</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>799</v>
+      </c>
+      <c r="B431">
+        <v>1.3006</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>800</v>
+      </c>
+      <c r="B432">
+        <v>1.304</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>801</v>
+      </c>
+      <c r="B433">
+        <v>1.3071999999999999</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>802</v>
+      </c>
+      <c r="B434">
+        <v>1.3104</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>803</v>
+      </c>
+      <c r="B435">
+        <v>1.3136000000000001</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>804</v>
+      </c>
+      <c r="B436">
+        <v>1.3168</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>805</v>
+      </c>
+      <c r="B437">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>806</v>
+      </c>
+      <c r="B438">
+        <v>1.3224</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>807</v>
+      </c>
+      <c r="B439">
+        <v>1.3248</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>808</v>
+      </c>
+      <c r="B440">
+        <v>1.3271999999999999</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>809</v>
+      </c>
+      <c r="B441">
+        <v>1.3295999999999999</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>810</v>
+      </c>
+      <c r="B442">
+        <v>1.3320000000000001</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>811</v>
+      </c>
+      <c r="B443">
+        <v>1.3331999999999999</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>812</v>
+      </c>
+      <c r="B444">
+        <v>1.3344</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>813</v>
+      </c>
+      <c r="B445">
+        <v>1.3355999999999999</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>814</v>
+      </c>
+      <c r="B446">
+        <v>1.3368</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>815</v>
+      </c>
+      <c r="B447">
+        <v>1.3380000000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>816</v>
+      </c>
+      <c r="B448">
+        <v>1.3375999999999999</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>817</v>
+      </c>
+      <c r="B449">
+        <v>1.3371999999999999</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>818</v>
+      </c>
+      <c r="B450">
+        <v>1.3368</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>819</v>
+      </c>
+      <c r="B451">
+        <v>1.3364</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>820</v>
+      </c>
+      <c r="B452">
+        <v>1.3360000000000001</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>821</v>
+      </c>
+      <c r="B453">
+        <v>1.3344</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>822</v>
+      </c>
+      <c r="B454">
+        <v>1.3328</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>823</v>
+      </c>
+      <c r="B455">
+        <v>1.3311999999999999</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>824</v>
+      </c>
+      <c r="B456">
+        <v>1.3295999999999999</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>825</v>
+      </c>
+      <c r="B457">
+        <v>1.3280000000000001</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>826</v>
+      </c>
+      <c r="B458">
+        <v>1.3244</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>827</v>
+      </c>
+      <c r="B459">
+        <v>1.3208</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>828</v>
+      </c>
+      <c r="B460">
+        <v>1.3171999999999999</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>829</v>
+      </c>
+      <c r="B461">
+        <v>1.3136000000000001</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>830</v>
+      </c>
+      <c r="B462">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>831</v>
+      </c>
+      <c r="B463">
+        <v>1.3044</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>832</v>
+      </c>
+      <c r="B464">
+        <v>1.2988</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>833</v>
+      </c>
+      <c r="B465">
+        <v>1.2931999999999999</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>834</v>
+      </c>
+      <c r="B466">
+        <v>1.2876000000000001</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>835</v>
+      </c>
+      <c r="B467">
+        <v>1.282</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>836</v>
+      </c>
+      <c r="B468">
+        <v>1.2736000000000001</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>837</v>
+      </c>
+      <c r="B469">
+        <v>1.2652000000000001</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>838</v>
+      </c>
+      <c r="B470">
+        <v>1.2567999999999999</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>839</v>
+      </c>
+      <c r="B471">
+        <v>1.2484</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>840</v>
+      </c>
+      <c r="B472">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>841</v>
+      </c>
+      <c r="B473">
+        <v>1.2287999999999999</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>842</v>
+      </c>
+      <c r="B474">
+        <v>1.2176</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>843</v>
+      </c>
+      <c r="B475">
+        <v>1.2063999999999999</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>844</v>
+      </c>
+      <c r="B476">
+        <v>1.1952</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>845</v>
+      </c>
+      <c r="B477">
+        <v>1.1839999999999999</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>846</v>
+      </c>
+      <c r="B478">
+        <v>1.1698</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>847</v>
+      </c>
+      <c r="B479">
+        <v>1.1556</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>848</v>
+      </c>
+      <c r="B480">
+        <v>1.1414</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>849</v>
+      </c>
+      <c r="B481">
+        <v>1.1272</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>850</v>
+      </c>
+      <c r="B482">
+        <v>1.113</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>851</v>
+      </c>
+      <c r="B483">
+        <v>1.0953999999999999</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>852</v>
+      </c>
+      <c r="B484">
+        <v>1.0778000000000001</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>856</v>
+      </c>
+      <c r="B485">
+        <v>0.92549999999999999</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>857</v>
+      </c>
+      <c r="B486">
+        <v>0.90939999999999999</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>858</v>
+      </c>
+      <c r="B487">
+        <v>0.89354999999999996</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>859</v>
+      </c>
+      <c r="B488">
+        <v>0.87794000000000005</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>860</v>
+      </c>
+      <c r="B489">
+        <v>0.86255000000000004</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>861</v>
+      </c>
+      <c r="B490">
+        <v>0.84391000000000005</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>862</v>
+      </c>
+      <c r="B491">
+        <v>0.82559000000000005</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>863</v>
+      </c>
+      <c r="B492">
+        <v>0.80759000000000003</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>864</v>
+      </c>
+      <c r="B493">
+        <v>0.78988000000000003</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>865</v>
+      </c>
+      <c r="B494">
+        <v>0.77246000000000004</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>866</v>
+      </c>
+      <c r="B495">
+        <v>0.75531999999999999</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>867</v>
+      </c>
+      <c r="B496">
+        <v>0.73845000000000005</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>868</v>
+      </c>
+      <c r="B497">
+        <v>0.72182999999999997</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>869</v>
+      </c>
+      <c r="B498">
+        <v>0.70547000000000004</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>870</v>
+      </c>
+      <c r="B499">
+        <v>0.68933999999999995</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>871</v>
+      </c>
+      <c r="B500">
+        <v>0.67288999999999999</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>872</v>
+      </c>
+      <c r="B501">
+        <v>0.65668000000000004</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>873</v>
+      </c>
+      <c r="B502">
+        <v>0.64071</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>874</v>
+      </c>
+      <c r="B503">
+        <v>0.62495999999999996</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>875</v>
+      </c>
+      <c r="B504">
+        <v>0.60943000000000003</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>876</v>
+      </c>
+      <c r="B505">
+        <v>0.59411000000000003</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>877</v>
+      </c>
+      <c r="B506">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>878</v>
+      </c>
+      <c r="B507">
+        <v>0.56408000000000003</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>879</v>
+      </c>
+      <c r="B508">
+        <v>0.54935999999999996</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>880</v>
+      </c>
+      <c r="B509">
+        <v>0.53483000000000003</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>881</v>
+      </c>
+      <c r="B510">
+        <v>0.52081</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>882</v>
+      </c>
+      <c r="B511">
+        <v>0.50697000000000003</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>883</v>
+      </c>
+      <c r="B512">
+        <v>0.49329000000000001</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>884</v>
+      </c>
+      <c r="B513">
+        <v>0.47976000000000002</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>885</v>
+      </c>
+      <c r="B514">
+        <v>0.46639000000000003</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>886</v>
+      </c>
+      <c r="B515">
+        <v>0.45317000000000002</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>887</v>
+      </c>
+      <c r="B516">
+        <v>0.44009999999999999</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>888</v>
+      </c>
+      <c r="B517">
+        <v>0.42715999999999998</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>889</v>
+      </c>
+      <c r="B518">
+        <v>0.41437000000000002</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>890</v>
+      </c>
+      <c r="B519">
+        <v>0.40171000000000001</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>891</v>
+      </c>
+      <c r="B520">
+        <v>0.3906</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>892</v>
+      </c>
+      <c r="B521">
+        <v>0.37957999999999997</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>893</v>
+      </c>
+      <c r="B522">
+        <v>0.36865999999999999</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>894</v>
+      </c>
+      <c r="B523">
+        <v>0.35783999999999999</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>895</v>
+      </c>
+      <c r="B524">
+        <v>0.34710000000000002</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>896</v>
+      </c>
+      <c r="B525">
+        <v>0.33645999999999998</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>897</v>
+      </c>
+      <c r="B526">
+        <v>0.32590999999999998</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>898</v>
+      </c>
+      <c r="B527">
+        <v>0.31544</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>899</v>
+      </c>
+      <c r="B528">
+        <v>0.30506</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>900</v>
+      </c>
+      <c r="B529">
+        <v>0.29476000000000002</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>901</v>
+      </c>
+      <c r="B530">
+        <v>0.28616999999999998</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>902</v>
+      </c>
+      <c r="B531">
+        <v>0.27764</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>903</v>
+      </c>
+      <c r="B532">
+        <v>0.26916000000000001</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>904</v>
+      </c>
+      <c r="B533">
+        <v>0.26073000000000002</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>905</v>
+      </c>
+      <c r="B534">
+        <v>0.25235000000000002</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>906</v>
+      </c>
+      <c r="B535">
+        <v>0.24401999999999999</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>907</v>
+      </c>
+      <c r="B536">
+        <v>0.23574000000000001</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>908</v>
+      </c>
+      <c r="B537">
+        <v>0.22750999999999999</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>909</v>
+      </c>
+      <c r="B538">
+        <v>0.21933</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>910</v>
+      </c>
+      <c r="B539">
+        <v>0.21118999999999999</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>911</v>
+      </c>
+      <c r="B540">
+        <v>0.20466000000000001</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>912</v>
+      </c>
+      <c r="B541">
+        <v>0.19816</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>913</v>
+      </c>
+      <c r="B542">
+        <v>0.19167999999999999</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>914</v>
+      </c>
+      <c r="B543">
+        <v>0.18522</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>915</v>
+      </c>
+      <c r="B544">
+        <v>0.17879999999999999</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>916</v>
+      </c>
+      <c r="B545">
+        <v>0.1724</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>917</v>
+      </c>
+      <c r="B546">
+        <v>0.16602</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>918</v>
+      </c>
+      <c r="B547">
+        <v>0.15967000000000001</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>919</v>
+      </c>
+      <c r="B548">
+        <v>0.15334</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>920</v>
+      </c>
+      <c r="B549">
+        <v>0.14704</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>921</v>
+      </c>
+      <c r="B550">
+        <v>0.14233999999999999</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>922</v>
+      </c>
+      <c r="B551">
+        <v>0.13764000000000001</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>923</v>
+      </c>
+      <c r="B552">
+        <v>0.13295999999999999</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>924</v>
+      </c>
+      <c r="B553">
+        <v>0.12828999999999999</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>925</v>
+      </c>
+      <c r="B554">
+        <v>0.12363</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>926</v>
+      </c>
+      <c r="B555">
+        <v>0.11897000000000001</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>927</v>
+      </c>
+      <c r="B556">
+        <v>0.11433</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>928</v>
+      </c>
+      <c r="B557">
+        <v>0.10970000000000001</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>929</v>
+      </c>
+      <c r="B558">
+        <v>0.10508000000000001</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>930</v>
+      </c>
+      <c r="B559">
+        <v>0.10047</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>931</v>
+      </c>
+      <c r="B560">
+        <v>9.6890000000000004E-2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>932</v>
+      </c>
+      <c r="B561">
+        <v>9.3310000000000004E-2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>933</v>
+      </c>
+      <c r="B562">
+        <v>8.974E-2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>934</v>
+      </c>
+      <c r="B563">
+        <v>8.6169999999999997E-2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>935</v>
+      </c>
+      <c r="B564">
+        <v>8.2610000000000003E-2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>936</v>
+      </c>
+      <c r="B565">
+        <v>7.9049999999999995E-2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>937</v>
+      </c>
+      <c r="B566">
+        <v>7.5490000000000002E-2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>938</v>
+      </c>
+      <c r="B567">
+        <v>7.1940000000000004E-2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>939</v>
+      </c>
+      <c r="B568">
+        <v>6.8390000000000006E-2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>940</v>
+      </c>
+      <c r="B569">
+        <v>6.4850000000000005E-2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>941</v>
+      </c>
+      <c r="B570">
+        <v>6.2359999999999999E-2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>942</v>
+      </c>
+      <c r="B571">
+        <v>5.9859999999999997E-2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>943</v>
+      </c>
+      <c r="B572">
+        <v>5.7369999999999997E-2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>944</v>
+      </c>
+      <c r="B573">
+        <v>5.4870000000000002E-2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>945</v>
+      </c>
+      <c r="B574">
+        <v>5.2380000000000003E-2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>946</v>
+      </c>
+      <c r="B575">
+        <v>4.9889999999999997E-2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>947</v>
+      </c>
+      <c r="B576">
+        <v>4.7399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>948</v>
+      </c>
+      <c r="B577">
+        <v>4.4900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>949</v>
+      </c>
+      <c r="B578">
+        <v>4.2410000000000003E-2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>950</v>
+      </c>
+      <c r="B579">
+        <v>3.9919999999999997E-2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>951</v>
+      </c>
+      <c r="B580">
+        <v>3.8330000000000003E-2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>952</v>
+      </c>
+      <c r="B581">
+        <v>3.6740000000000002E-2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>953</v>
+      </c>
+      <c r="B582">
+        <v>3.5150000000000001E-2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>954</v>
+      </c>
+      <c r="B583">
+        <v>3.356E-2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>955</v>
+      </c>
+      <c r="B584">
+        <v>3.1969999999999998E-2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>956</v>
+      </c>
+      <c r="B585">
+        <v>3.0370000000000001E-2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>957</v>
+      </c>
+      <c r="B586">
+        <v>2.878E-2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>958</v>
+      </c>
+      <c r="B587">
+        <v>2.7179999999999999E-2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>959</v>
+      </c>
+      <c r="B588">
+        <v>2.5579999999999999E-2</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>960</v>
+      </c>
+      <c r="B589">
+        <v>2.3980000000000001E-2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>961</v>
+      </c>
+      <c r="B590">
+        <v>2.299E-2</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>962</v>
+      </c>
+      <c r="B591">
+        <v>2.1989999999999999E-2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>963</v>
+      </c>
+      <c r="B592">
+        <v>2.0990000000000002E-2</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>964</v>
+      </c>
+      <c r="B593">
+        <v>1.9990000000000001E-2</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>965</v>
+      </c>
+      <c r="B594">
+        <v>1.899E-2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>966</v>
+      </c>
+      <c r="B595">
+        <v>1.7989999999999999E-2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>967</v>
+      </c>
+      <c r="B596">
+        <v>1.6990000000000002E-2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>968</v>
+      </c>
+      <c r="B597">
+        <v>1.5980000000000001E-2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>969</v>
+      </c>
+      <c r="B598">
+        <v>1.498E-2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>970</v>
+      </c>
+      <c r="B599">
+        <v>1.397E-2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>971</v>
+      </c>
+      <c r="B600">
+        <v>1.338E-2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>972</v>
+      </c>
+      <c r="B601">
+        <v>1.2789999999999999E-2</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>973</v>
+      </c>
+      <c r="B602">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>974</v>
+      </c>
+      <c r="B603">
+        <v>1.1610000000000001E-2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>975</v>
+      </c>
+      <c r="B604">
+        <v>1.102E-2</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>976</v>
+      </c>
+      <c r="B605">
+        <v>1.042E-2</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>977</v>
+      </c>
+      <c r="B606">
+        <v>9.8300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>978</v>
+      </c>
+      <c r="B607">
+        <v>9.2399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>979</v>
+      </c>
+      <c r="B608">
+        <v>8.6400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>980</v>
+      </c>
+      <c r="B609">
+        <v>8.0400000000000003E-3</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>981</v>
+      </c>
+      <c r="B610">
+        <v>7.7200000000000003E-3</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>982</v>
+      </c>
+      <c r="B611">
+        <v>7.3899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>983</v>
+      </c>
+      <c r="B612">
+        <v>7.0600000000000003E-3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>984</v>
+      </c>
+      <c r="B613">
+        <v>6.7400000000000003E-3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>985</v>
+      </c>
+      <c r="B614">
+        <v>6.4099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>986</v>
+      </c>
+      <c r="B615">
+        <v>6.0800000000000003E-3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <v>987</v>
+      </c>
+      <c r="B616">
+        <v>5.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <v>988</v>
+      </c>
+      <c r="B617">
+        <v>5.4200000000000003E-3</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618">
+        <v>989</v>
+      </c>
+      <c r="B618">
+        <v>5.0899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>990</v>
+      </c>
+      <c r="B619">
+        <v>4.7600000000000003E-3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>991</v>
+      </c>
+      <c r="B620">
+        <v>4.5700000000000003E-3</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>992</v>
+      </c>
+      <c r="B621">
+        <v>4.3800000000000002E-3</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>993</v>
+      </c>
+      <c r="B622">
+        <v>4.1900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <v>994</v>
+      </c>
+      <c r="B623">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>995</v>
+      </c>
+      <c r="B624">
+        <v>3.81E-3</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>996</v>
+      </c>
+      <c r="B625">
+        <v>3.63E-3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>997</v>
+      </c>
+      <c r="B626">
+        <v>3.4399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>998</v>
+      </c>
+      <c r="B627">
+        <v>3.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>999</v>
+      </c>
+      <c r="B628">
+        <v>3.0500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>1000</v>
+      </c>
+      <c r="B629">
+        <v>2.8600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <v>1001</v>
+      </c>
+      <c r="B630">
+        <v>2.7599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A631">
+        <v>1002</v>
+      </c>
+      <c r="B631">
+        <v>2.65E-3</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <v>1003</v>
+      </c>
+      <c r="B632">
+        <v>2.5400000000000002E-3</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>1004</v>
+      </c>
+      <c r="B633">
+        <v>2.4399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>1005</v>
+      </c>
+      <c r="B634">
+        <v>2.33E-3</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>1006</v>
+      </c>
+      <c r="B635">
+        <v>2.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>1007</v>
+      </c>
+      <c r="B636">
+        <v>2.1199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>1008</v>
+      </c>
+      <c r="B637">
+        <v>2.0100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>1009</v>
+      </c>
+      <c r="B638">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>1010</v>
+      </c>
+      <c r="B639">
+        <v>1.7899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>1011</v>
+      </c>
+      <c r="B640">
+        <v>1.73E-3</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>1012</v>
+      </c>
+      <c r="B641">
+        <v>1.67E-3</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>1013</v>
+      </c>
+      <c r="B642">
+        <v>1.6100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>1014</v>
+      </c>
+      <c r="B643">
+        <v>1.5399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>1015</v>
+      </c>
+      <c r="B644">
+        <v>1.48E-3</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <v>1016</v>
+      </c>
+      <c r="B645">
+        <v>1.42E-3</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <v>1017</v>
+      </c>
+      <c r="B646">
+        <v>1.3500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <v>1018</v>
+      </c>
+      <c r="B647">
+        <v>1.2899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A648">
+        <v>1019</v>
+      </c>
+      <c r="B648">
+        <v>1.2199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A649">
+        <v>1020</v>
+      </c>
+      <c r="B649">
+        <v>1.16E-3</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A650">
+        <v>1021</v>
+      </c>
+      <c r="B650">
+        <v>1.1299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A651">
+        <v>1022</v>
+      </c>
+      <c r="B651">
+        <v>1.09E-3</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A652">
+        <v>1023</v>
+      </c>
+      <c r="B652">
+        <v>1.06E-3</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A653">
+        <v>1024</v>
+      </c>
+      <c r="B653">
+        <v>1.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A654">
+        <v>1025</v>
+      </c>
+      <c r="B654" s="3">
+        <v>9.9067399999999998E-4</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655">
+        <v>1026</v>
+      </c>
+      <c r="B655" s="3">
+        <v>9.5646999999999995E-4</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A656">
+        <v>1027</v>
+      </c>
+      <c r="B656" s="3">
+        <v>9.2219999999999997E-4</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A657">
+        <v>1028</v>
+      </c>
+      <c r="B657" s="3">
+        <v>8.8786099999999999E-4</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A658">
+        <v>1029</v>
+      </c>
+      <c r="B658" s="3">
+        <v>8.5345600000000005E-4</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A659">
+        <v>1030</v>
+      </c>
+      <c r="B659" s="3">
+        <v>8.18982E-4</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A660">
+        <v>1031</v>
+      </c>
+      <c r="B660" s="3">
+        <v>7.9217299999999997E-4</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A661">
+        <v>1032</v>
+      </c>
+      <c r="B661" s="3">
+        <v>7.6531099999999996E-4</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A662">
+        <v>1033</v>
+      </c>
+      <c r="B662" s="3">
+        <v>7.38396E-4</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663">
+        <v>1034</v>
+      </c>
+      <c r="B663" s="3">
+        <v>7.1142799999999995E-4</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A664">
+        <v>1035</v>
+      </c>
+      <c r="B664" s="3">
+        <v>6.8440700000000005E-4</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A665">
+        <v>1036</v>
+      </c>
+      <c r="B665" s="3">
+        <v>6.5733299999999996E-4</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A666">
+        <v>1037</v>
+      </c>
+      <c r="B666" s="3">
+        <v>6.3020600000000002E-4</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A667">
+        <v>1038</v>
+      </c>
+      <c r="B667" s="3">
+        <v>6.03026E-4</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A668">
+        <v>1039</v>
+      </c>
+      <c r="B668" s="3">
+        <v>5.7579400000000002E-4</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A669">
+        <v>1040</v>
+      </c>
+      <c r="B669" s="3">
+        <v>5.4850799999999996E-4</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A670">
+        <v>1041</v>
+      </c>
+      <c r="B670" s="3">
+        <v>5.3111599999999999E-4</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671">
+        <v>1042</v>
+      </c>
+      <c r="B671" s="3">
+        <v>5.1369000000000002E-4</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672">
+        <v>1043</v>
+      </c>
+      <c r="B672" s="3">
+        <v>4.9622900000000005E-4</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673">
+        <v>1044</v>
+      </c>
+      <c r="B673" s="3">
+        <v>4.7873499999999999E-4</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <v>1045</v>
+      </c>
+      <c r="B674" s="3">
+        <v>4.6120599999999997E-4</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <v>1046</v>
+      </c>
+      <c r="B675" s="3">
+        <v>4.4364300000000002E-4</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <v>1047</v>
+      </c>
+      <c r="B676" s="3">
+        <v>4.2604600000000002E-4</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <v>1048</v>
+      </c>
+      <c r="B677" s="3">
+        <v>4.0841400000000001E-4</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <v>1049</v>
+      </c>
+      <c r="B678" s="3">
+        <v>3.9074900000000002E-4</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <v>1050</v>
+      </c>
+      <c r="B679" s="3">
+        <v>3.7304900000000003E-4</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <v>1051</v>
+      </c>
+      <c r="B680" s="3">
+        <v>3.6625600000000003E-4</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <v>1052</v>
+      </c>
+      <c r="B681" s="3">
+        <v>3.59448E-4</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>1053</v>
+      </c>
+      <c r="B682" s="3">
+        <v>3.52627E-4</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683">
+        <v>1054</v>
+      </c>
+      <c r="B683" s="3">
+        <v>3.45793E-4</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A684">
+        <v>1055</v>
+      </c>
+      <c r="B684" s="3">
+        <v>3.38945E-4</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A685">
+        <v>1056</v>
+      </c>
+      <c r="B685" s="3">
+        <v>3.3208400000000001E-4</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686">
+        <v>1057</v>
+      </c>
+      <c r="B686" s="3">
+        <v>3.2520800000000001E-4</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A687">
+        <v>1058</v>
+      </c>
+      <c r="B687" s="3">
+        <v>3.1831999999999997E-4</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688">
+        <v>1059</v>
+      </c>
+      <c r="B688" s="3">
+        <v>3.1141699999999998E-4</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A689">
+        <v>1060</v>
+      </c>
+      <c r="B689" s="3">
+        <v>3.0450200000000001E-4</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A690">
+        <v>1061</v>
+      </c>
+      <c r="B690" s="3">
+        <v>2.9422399999999999E-4</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <v>1062</v>
+      </c>
+      <c r="B691" s="3">
+        <v>2.8392599999999999E-4</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <v>1063</v>
+      </c>
+      <c r="B692" s="3">
+        <v>2.73608E-4</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <v>1064</v>
+      </c>
+      <c r="B693" s="3">
+        <v>2.6327000000000002E-4</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <v>1065</v>
+      </c>
+      <c r="B694" s="3">
+        <v>2.5291300000000001E-4</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <v>1066</v>
+      </c>
+      <c r="B695" s="3">
+        <v>2.4253600000000001E-4</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A696">
+        <v>1067</v>
+      </c>
+      <c r="B696" s="3">
+        <v>2.3213899999999999E-4</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A697">
+        <v>1068</v>
+      </c>
+      <c r="B697" s="3">
+        <v>2.2172199999999999E-4</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A698">
+        <v>1069</v>
+      </c>
+      <c r="B698" s="3">
+        <v>2.1128499999999999E-4</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A699">
+        <v>1070</v>
+      </c>
+      <c r="B699" s="3">
+        <v>2.00829E-4</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A700">
+        <v>1071</v>
+      </c>
+      <c r="B700" s="3">
+        <v>1.97698E-4</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A701">
+        <v>1072</v>
+      </c>
+      <c r="B701" s="3">
+        <v>1.94561E-4</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A702">
+        <v>1073</v>
+      </c>
+      <c r="B702" s="3">
+        <v>1.91418E-4</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A703">
+        <v>1074</v>
+      </c>
+      <c r="B703" s="3">
+        <v>1.88269E-4</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704">
+        <v>1075</v>
+      </c>
+      <c r="B704" s="3">
+        <v>1.8511299999999999E-4</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A705">
+        <v>1076</v>
+      </c>
+      <c r="B705" s="3">
+        <v>1.8195099999999999E-4</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A706">
+        <v>1077</v>
+      </c>
+      <c r="B706" s="3">
+        <v>1.7878300000000001E-4</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A707">
+        <v>1078</v>
+      </c>
+      <c r="B707" s="3">
+        <v>1.7560899999999999E-4</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A708">
+        <v>1079</v>
+      </c>
+      <c r="B708" s="3">
+        <v>1.7242900000000001E-4</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A709">
+        <v>1080</v>
+      </c>
+      <c r="B709" s="3">
+        <v>1.69242E-4</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A710">
+        <v>1081</v>
+      </c>
+      <c r="B710" s="3">
+        <v>1.61834E-4</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A711">
+        <v>1082</v>
+      </c>
+      <c r="B711" s="3">
+        <v>1.54411E-4</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A712">
+        <v>1083</v>
+      </c>
+      <c r="B712" s="3">
+        <v>1.4697399999999999E-4</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A713">
+        <v>1084</v>
+      </c>
+      <c r="B713" s="3">
+        <v>1.39524E-4</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A714">
+        <v>1085</v>
+      </c>
+      <c r="B714" s="3">
+        <v>1.3205899999999999E-4</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <v>1086</v>
+      </c>
+      <c r="B715" s="3">
+        <v>1.2458099999999999E-4</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A716">
+        <v>1087</v>
+      </c>
+      <c r="B716" s="3">
+        <v>1.17088E-4</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A717">
+        <v>1088</v>
+      </c>
+      <c r="B717" s="3">
+        <v>1.09582E-4</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A718">
+        <v>1089</v>
+      </c>
+      <c r="B718" s="3">
+        <v>1.02061E-4</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A719">
+        <v>1090</v>
+      </c>
+      <c r="B719" s="3">
+        <v>9.4527100000000005E-5</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720">
+        <v>1091</v>
+      </c>
+      <c r="B720" s="3">
+        <v>9.6968999999999999E-5</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <v>1092</v>
+      </c>
+      <c r="B721" s="3">
+        <v>9.9415199999999996E-5</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <v>1093</v>
+      </c>
+      <c r="B722" s="3">
+        <v>1.01866E-4</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A723">
+        <v>1094</v>
+      </c>
+      <c r="B723" s="3">
+        <v>1.0432100000000001E-4</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A724">
+        <v>1095</v>
+      </c>
+      <c r="B724" s="3">
+        <v>1.0678E-4</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A725">
+        <v>1096</v>
+      </c>
+      <c r="B725" s="3">
+        <v>1.09243E-4</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <v>1097</v>
+      </c>
+      <c r="B726" s="3">
+        <v>1.11711E-4</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <v>1098</v>
+      </c>
+      <c r="B727" s="3">
+        <v>1.14183E-4</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <v>1099</v>
+      </c>
+      <c r="B728" s="3">
+        <v>1.1666E-4</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <v>1100</v>
+      </c>
+      <c r="B729" s="3">
+        <v>1.1914E-4</v>
       </c>
     </row>
   </sheetData>
